--- a/CommonCore/Libft_testers/Testers_Log.xlsx
+++ b/CommonCore/Libft_testers/Testers_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jf/Desktop/42Porto/CommonCore/Libft_testers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0445177-66D1-2B44-AED8-ED3A6D7D20C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BBB46D-2B35-E342-9289-5D3EA29EBC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="580" windowWidth="21020" windowHeight="16640" xr2:uid="{7D37887B-3066-6043-B822-C09464F3B85D}"/>
+    <workbookView xWindow="8320" yWindow="1840" windowWidth="21020" windowHeight="16640" xr2:uid="{7D37887B-3066-6043-B822-C09464F3B85D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="40">
   <si>
     <t>ft_atoi</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>KO</t>
+  </si>
+  <si>
+    <t>Tripouille</t>
   </si>
 </sst>
 </file>
@@ -186,16 +189,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -203,17 +206,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -231,16 +237,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -554,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA317D4D-E87C-4C42-B358-BAD3E922D4F2}">
-  <dimension ref="B3:E37"/>
+  <dimension ref="B3:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,7 +562,7 @@
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>34</v>
@@ -577,8 +573,11 @@
       <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,8 +590,11 @@
       <c r="E4" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -605,22 +607,28 @@
       <c r="E5" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -633,8 +641,11 @@
       <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -647,8 +658,11 @@
       <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -661,8 +675,11 @@
       <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -675,8 +692,11 @@
       <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
@@ -689,8 +709,11 @@
       <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -703,8 +726,11 @@
       <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -717,8 +743,11 @@
       <c r="E13" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -731,8 +760,11 @@
       <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
@@ -745,8 +777,11 @@
       <c r="E15" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
@@ -759,8 +794,11 @@
       <c r="E16" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -773,8 +811,11 @@
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -787,8 +828,11 @@
       <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
@@ -801,8 +845,11 @@
       <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
@@ -815,8 +862,11 @@
       <c r="E20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
@@ -829,8 +879,11 @@
       <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
@@ -843,8 +896,11 @@
       <c r="E22" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
@@ -857,8 +913,11 @@
       <c r="E23" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
@@ -871,8 +930,11 @@
       <c r="E24" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
@@ -885,8 +947,11 @@
       <c r="E25" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
@@ -899,8 +964,11 @@
       <c r="E26" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
@@ -913,8 +981,11 @@
       <c r="E27" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
@@ -927,8 +998,11 @@
       <c r="E28" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
@@ -941,8 +1015,11 @@
       <c r="E29" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
@@ -955,8 +1032,11 @@
       <c r="E30" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
@@ -969,8 +1049,11 @@
       <c r="E31" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
@@ -983,8 +1066,11 @@
       <c r="E32" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
@@ -997,8 +1083,11 @@
       <c r="E33" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
@@ -1011,8 +1100,11 @@
       <c r="E34" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>31</v>
       </c>
@@ -1025,8 +1117,11 @@
       <c r="E35" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>32</v>
       </c>
@@ -1039,8 +1134,11 @@
       <c r="E36" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>33</v>
       </c>
@@ -1053,14 +1151,17 @@
       <c r="E37" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="F37" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:E37">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"KO"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="C4:F37">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CommonCore/Libft_testers/Testers_Log.xlsx
+++ b/CommonCore/Libft_testers/Testers_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jf/Desktop/42Porto/CommonCore/Libft_testers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BBB46D-2B35-E342-9289-5D3EA29EBC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1BEE7B-D410-8248-82CE-148C737045B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8320" yWindow="1840" windowWidth="21020" windowHeight="16640" xr2:uid="{7D37887B-3066-6043-B822-C09464F3B85D}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="B3:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,13 +735,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>37</v>
@@ -786,16 +786,16 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">

--- a/CommonCore/Libft_testers/Testers_Log.xlsx
+++ b/CommonCore/Libft_testers/Testers_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jf/Desktop/42Porto/CommonCore/Libft_testers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1BEE7B-D410-8248-82CE-148C737045B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACCA4E7-73C8-8347-981C-EF142143D395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="1840" windowWidth="21020" windowHeight="16640" xr2:uid="{7D37887B-3066-6043-B822-C09464F3B85D}"/>
+    <workbookView xWindow="42620" yWindow="1760" windowWidth="21020" windowHeight="16640" xr2:uid="{7D37887B-3066-6043-B822-C09464F3B85D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,13 +206,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,7 +550,7 @@
   <dimension ref="B3:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,7 +570,7 @@
       <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -590,7 +587,7 @@
       <c r="E4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -607,7 +604,7 @@
       <c r="E5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -624,7 +621,7 @@
       <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -641,7 +638,7 @@
       <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -658,7 +655,7 @@
       <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -675,7 +672,7 @@
       <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -692,7 +689,7 @@
       <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -709,7 +706,7 @@
       <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -726,7 +723,7 @@
       <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -743,7 +740,7 @@
       <c r="E13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -760,7 +757,7 @@
       <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -775,9 +772,9 @@
         <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -794,7 +791,7 @@
       <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -811,7 +808,7 @@
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -828,7 +825,7 @@
       <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -845,7 +842,7 @@
       <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -862,7 +859,7 @@
       <c r="E20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -879,7 +876,7 @@
       <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -896,7 +893,7 @@
       <c r="E22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -913,7 +910,7 @@
       <c r="E23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -930,7 +927,7 @@
       <c r="E24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -947,7 +944,7 @@
       <c r="E25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -964,7 +961,7 @@
       <c r="E26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -981,7 +978,7 @@
       <c r="E27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -998,7 +995,7 @@
       <c r="E28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1015,7 +1012,7 @@
       <c r="E29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1032,7 +1029,7 @@
       <c r="E30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1049,7 +1046,7 @@
       <c r="E31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1066,7 +1063,7 @@
       <c r="E32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1083,7 +1080,7 @@
       <c r="E33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1100,7 +1097,7 @@
       <c r="E34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1117,7 +1114,7 @@
       <c r="E35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1134,7 +1131,7 @@
       <c r="E36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1151,7 +1148,7 @@
       <c r="E37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>37</v>
       </c>
     </row>
